--- a/csv.excel/src/main/resources/userImport.xlsx
+++ b/csv.excel/src/main/resources/userImport.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptnghia1/data/sources/nghia/source-researching/csv.excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783B85A-BE52-3345-99CF-0330F4F133EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D179E9B7-F71C-C44E-B2CB-4FB5F7EA3E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="26940" windowHeight="16940" xr2:uid="{4CAA4E14-97E3-F943-8A11-561A4C9F16A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -805,7 +805,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
